--- a/src/test/resources/org/nexial/core/ExecutionInputPrepTest_test1.data.xlsx
+++ b/src/test/resources/org/nexial/core/ExecutionInputPrepTest_test1.data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/sentry-core/src/test/resources/com/ep/qa/sentry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/org/nexial/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4881DB7-EE25-AD46-97C2-4C7801ADDE99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="31460" windowWidth="25600" xWindow="25600" yWindow="440"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="10520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="scenario1" r:id="rId1" sheetId="3"/>
-    <sheet name="scenario2" r:id="rId2" sheetId="4"/>
+    <sheet name="scenario1" sheetId="3" r:id="rId1"/>
+    <sheet name="scenario2" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,20 +29,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>sentry.pollWaitMs</t>
-  </si>
-  <si>
     <t>800</t>
   </si>
   <si>
-    <t>sentry.textDelim</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
@@ -57,39 +52,18 @@
     <t>Value2</t>
   </si>
   <si>
-    <t>sentry.scope.mailTo</t>
-  </si>
-  <si>
-    <t>sentry.scope.executionMode</t>
-  </si>
-  <si>
     <t>local</t>
   </si>
   <si>
-    <t>sentry.scope.fallbackToPrevious</t>
-  </si>
-  <si>
-    <t>sentry.scope.iteration</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>sentry.delayBetweenStepsMs</t>
-  </si>
-  <si>
     <t>600</t>
   </si>
   <si>
-    <t>sentry.failFast</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>sentry.verbose</t>
-  </si>
-  <si>
     <t>Value1a</t>
   </si>
   <si>
@@ -102,9 +76,6 @@
     <t>jumbotron@tiny.corp</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>nexial.scope.executionMode</t>
   </si>
   <si>
@@ -130,14 +101,16 @@
   </si>
   <si>
     <t>nexial.verbose</t>
+  </si>
+  <si>
+    <t>1-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,43 +193,43 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -438,10 +411,13 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -452,10 +428,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -490,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -525,7 +501,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -619,21 +595,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -650,7 +626,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -702,39 +678,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AAB11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AAA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
-      <selection sqref="A1:B11"/>
+    <sheetView zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="28.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="21.1640625" collapsed="false"/>
-    <col min="3" max="27" customWidth="true" style="3" width="21.1640625" collapsed="false"/>
-    <col min="28" max="16384" style="3" width="10.83203125" collapsed="false"/>
+    <col min="1" max="1" width="28.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="2" customWidth="1"/>
+    <col min="3" max="27" width="21.1640625" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:703" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -742,154 +718,154 @@
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
-    <row r="4" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:703">
       <c r="A4" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="HA4" s="6"/>
       <c r="AAA4" s="6"/>
     </row>
-    <row r="5" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:703">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
-    <row r="11" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:703">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="HA11" s="4"/>
       <c r="AAA11" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection deleteColumns="0" deleteRows="0" insertColumns="0" insertRows="0" sheet="1"/>
+  <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule dxfId="13" operator="beginsWith" priority="5" stopIfTrue="1" text="sentry.scope." type="beginsWith">
+    <cfRule type="beginsWith" dxfId="13" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule dxfId="12" operator="beginsWith" priority="6" stopIfTrue="1" text="sentry." type="beginsWith">
+    <cfRule type="beginsWith" dxfId="12" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule dxfId="11" priority="7" stopIfTrue="1" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="7" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule dxfId="10" priority="3" type="expression">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
-    <cfRule dxfId="9" priority="4" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="4">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule dxfId="8" priority="1" type="expression">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
-    <cfRule dxfId="7" priority="2" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AAB8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AAA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="28.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="21.1640625" collapsed="false"/>
-    <col min="3" max="27" customWidth="true" style="3" width="21.1640625" collapsed="false"/>
-    <col min="28" max="16384" style="3" width="10.83203125" collapsed="false"/>
+    <col min="1" max="1" width="28.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="2" customWidth="1"/>
+    <col min="3" max="27" width="21.1640625" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:703" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -897,9 +873,9 @@
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -907,29 +883,29 @@
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
-    <row r="4" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:703">
       <c r="A4" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="HA4" s="6"/>
       <c r="AAA4" s="6"/>
     </row>
-    <row r="5" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -937,59 +913,59 @@
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection deleteColumns="0" deleteRows="0" insertColumns="0" insertRows="0" sheet="1"/>
+  <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule dxfId="6" operator="beginsWith" priority="5" stopIfTrue="1" text="sentry.scope." type="beginsWith">
+    <cfRule type="beginsWith" dxfId="6" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule dxfId="5" operator="beginsWith" priority="6" stopIfTrue="1" text="sentry." type="beginsWith">
+    <cfRule type="beginsWith" dxfId="5" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule dxfId="4" priority="7" stopIfTrue="1" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="7" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B3:B1048576">
-    <cfRule dxfId="3" priority="3" type="expression">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
-    <cfRule dxfId="2" priority="4" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule dxfId="1" priority="1" type="expression">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="2" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/org/nexial/core/ExecutionInputPrepTest_test1.data.xlsx
+++ b/src/test/resources/org/nexial/core/ExecutionInputPrepTest_test1.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/org/nexial/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4881DB7-EE25-AD46-97C2-4C7801ADDE99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6A6E2C-5E8A-104B-A6DB-5869C6E06918}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="10520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="10520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="3" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>nexial.scope.iteration</t>
   </si>
   <si>
-    <t>nexial.scope.mailTo</t>
-  </si>
-  <si>
     <t>nexial.delayBetweenStepsMs</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>1-3</t>
+  </si>
+  <si>
+    <t>nexial.mailTo</t>
   </si>
 </sst>
 </file>
@@ -122,15 +122,18 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -142,6 +145,7 @@
       <i/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -688,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -730,14 +734,14 @@
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="HA4" s="6"/>
       <c r="AAA4" s="6"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -747,7 +751,7 @@
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -757,7 +761,7 @@
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
@@ -767,7 +771,7 @@
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -777,7 +781,7 @@
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -843,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AAA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -878,14 +882,14 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -895,7 +899,7 @@
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -905,7 +909,7 @@
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>

--- a/src/test/resources/org/nexial/core/ExecutionInputPrepTest_test1.data.xlsx
+++ b/src/test/resources/org/nexial/core/ExecutionInputPrepTest_test1.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/org/nexial/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\org\nexial\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6A6E2C-5E8A-104B-A6DB-5869C6E06918}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24BCDF5-6DAA-4EE3-9A58-30065E7F4C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="10520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario1" sheetId="3" r:id="rId1"/>
@@ -693,15 +693,15 @@
   <dimension ref="A1:AAA11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="2" customWidth="1"/>
-    <col min="3" max="27" width="21.1640625" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="28.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="2" customWidth="1"/>
+    <col min="3" max="27" width="21.125" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:703">
@@ -851,12 +851,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="2" customWidth="1"/>
-    <col min="3" max="27" width="21.1640625" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="28.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="2" customWidth="1"/>
+    <col min="3" max="27" width="21.125" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:703">

--- a/src/test/resources/org/nexial/core/ExecutionInputPrepTest_test1.data.xlsx
+++ b/src/test/resources/org/nexial/core/ExecutionInputPrepTest_test1.data.xlsx
@@ -1,45 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\org\nexial\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24BCDF5-6DAA-4EE3-9A58-30065E7F4C40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ED80B9-A884-4251-A821-4E5E28DF6176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="scenario1" sheetId="3" r:id="rId1"/>
-    <sheet name="scenario2" sheetId="4" r:id="rId2"/>
+    <sheet name="#default" sheetId="2" r:id="rId1"/>
+    <sheet name="scenario1" sheetId="3" r:id="rId2"/>
+    <sheet name="scenario2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
+    <definedName name="csv">'[1]#system'!$C$2:$C$3</definedName>
+    <definedName name="desktop">'[1]#system'!$D$2:$D$15</definedName>
+    <definedName name="excel">'[1]#system'!$E$2:$E$4</definedName>
+    <definedName name="external">'[1]#system'!$F$2:$F$3</definedName>
+    <definedName name="io">'[1]#system'!$G$2:$G$17</definedName>
+    <definedName name="json">'[1]#system'!$H$2:$H$11</definedName>
+    <definedName name="mail">'[1]#system'!$I$2:$I$2</definedName>
+    <definedName name="nextgen">'[1]#system'!$J$2:$J$26</definedName>
+    <definedName name="number">'[1]#system'!$K$2:$K$13</definedName>
+    <definedName name="rdbms">'[1]#system'!$L$2:$L$5</definedName>
+    <definedName name="target">'[1]#system'!$A$2:$A$16</definedName>
+    <definedName name="web">'[1]#system'!$M$2:$M$106</definedName>
+    <definedName name="webalert">'[1]#system'!$N$2:$N$6</definedName>
+    <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
+    <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+  <si>
+    <t>nexial.scope.executionMode</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>nexial.scope.fallbackToPrevious</t>
+  </si>
   <si>
     <t>true</t>
   </si>
   <si>
+    <t>nexial.scope.iteration</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>nexial.mailTo</t>
+  </si>
+  <si>
+    <t>nexial.delayBetweenStepsMs</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>nexial.failFast</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>nexial.pollWaitMs</t>
+  </si>
+  <si>
     <t>800</t>
   </si>
   <si>
+    <t>nexial.textDelim</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
+    <t>nexial.verbose</t>
+  </si>
+  <si>
     <t>var1</t>
   </si>
   <si>
@@ -52,16 +105,10 @@
     <t>Value2</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>false</t>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>jumbotron@tiny.corp</t>
   </si>
   <si>
     <t>Value1a</t>
@@ -71,97 +118,35 @@
   </si>
   <si>
     <t>Value2a</t>
-  </si>
-  <si>
-    <t>jumbotron@tiny.corp</t>
-  </si>
-  <si>
-    <t>nexial.scope.executionMode</t>
-  </si>
-  <si>
-    <t>nexial.scope.fallbackToPrevious</t>
-  </si>
-  <si>
-    <t>nexial.scope.iteration</t>
-  </si>
-  <si>
-    <t>nexial.delayBetweenStepsMs</t>
-  </si>
-  <si>
-    <t>nexial.failFast</t>
-  </si>
-  <si>
-    <t>nexial.pollWaitMs</t>
-  </si>
-  <si>
-    <t>nexial.textDelim</t>
-  </si>
-  <si>
-    <t>nexial.verbose</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>nexial.mailTo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Courier New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Menlo-Regular"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,27 +167,29 @@
     </border>
     <border>
       <left style="hair">
-        <color theme="6" tint="0.39994506668294322"/>
+        <color theme="6" tint="0.39991454817346722"/>
       </left>
       <right style="hair">
-        <color theme="6" tint="0.39994506668294322"/>
+        <color theme="6" tint="0.39991454817346722"/>
       </right>
       <top style="hair">
-        <color theme="6" tint="0.39994506668294322"/>
+        <color theme="6" tint="0.39991454817346722"/>
       </top>
       <bottom style="hair">
-        <color theme="6" tint="0.39994506668294322"/>
+        <color theme="6" tint="0.39991454817346722"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -211,54 +198,30 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <color theme="1"/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -270,45 +233,21 @@
         <u val="none"/>
         <color theme="1"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -320,8 +259,46 @@
         <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -333,9 +310,46 @@
         <u val="none"/>
         <color theme="1"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
@@ -346,8 +360,8 @@
         <color theme="1"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
         </patternFill>
       </fill>
     </dxf>
@@ -359,9 +373,22 @@
         <u val="none"/>
         <color theme="1"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -372,20 +399,8 @@
         <color theme="1"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14993743705557422"/>
         </patternFill>
       </fill>
     </dxf>
@@ -396,8 +411,8 @@
         <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
@@ -409,8 +424,21 @@
         <color theme="4" tint="-0.24994659260841701"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -425,6 +453,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="#system"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,7 +511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -505,7 +546,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -680,296 +721,1130 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA11"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="28.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="2" customWidth="1"/>
-    <col min="3" max="27" width="21.125" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="10.875" style="3"/>
+    <col min="1" max="1" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.09765625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="21.296875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
+    <row r="1" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:703">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="HA2" s="6"/>
-      <c r="AAA2" s="6"/>
-    </row>
-    <row r="3" spans="1:703">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="HA3" s="6"/>
-      <c r="AAA3" s="6"/>
-    </row>
-    <row r="4" spans="1:703">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="HA4" s="6"/>
-      <c r="AAA4" s="6"/>
-    </row>
-    <row r="5" spans="1:703">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="HA5" s="4"/>
-      <c r="AAA5" s="5"/>
-    </row>
-    <row r="6" spans="1:703">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="HA6" s="4"/>
-      <c r="AAA6" s="5"/>
-    </row>
-    <row r="7" spans="1:703">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="HA7" s="4"/>
-      <c r="AAA7" s="5"/>
-    </row>
-    <row r="8" spans="1:703">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="HA8" s="4"/>
-      <c r="AAA8" s="5"/>
-    </row>
-    <row r="9" spans="1:703">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="HA9" s="4"/>
-      <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
-    </row>
-    <row r="11" spans="1:703">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="HA11" s="4"/>
-      <c r="AAA11" s="5"/>
+    </row>
+    <row r="2" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A99" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="13" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
-      <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
+    <cfRule type="beginsWith" dxfId="17" priority="1" stopIfTrue="1" operator="beginsWith" text="//">
+      <formula>LEFT(A1,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.">
-      <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
+    <cfRule type="beginsWith" dxfId="16" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="beginsWith" dxfId="15" priority="3" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="14" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="expression" dxfId="10" priority="3">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
+  <conditionalFormatting sqref="B1:E1048576">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="9" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="8">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="2">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AAA8"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="28.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="2" customWidth="1"/>
-    <col min="3" max="27" width="21.125" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="10.875" style="3"/>
+    <col min="1" max="1" width="23.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.296875" style="2" customWidth="1"/>
+    <col min="3" max="5" width="21.296875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:703">
-      <c r="A2" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="HA2" s="6"/>
-      <c r="AAA2" s="6"/>
-    </row>
-    <row r="3" spans="1:703">
-      <c r="A3" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="HA3" s="6"/>
-      <c r="AAA3" s="6"/>
-    </row>
-    <row r="4" spans="1:703">
-      <c r="A4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="HA4" s="6"/>
-      <c r="AAA4" s="6"/>
-    </row>
-    <row r="5" spans="1:703">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="HA5" s="4"/>
-      <c r="AAA5" s="5"/>
-    </row>
-    <row r="6" spans="1:703">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="HA6" s="4"/>
-      <c r="AAA6" s="5"/>
-    </row>
-    <row r="7" spans="1:703">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="HA7" s="4"/>
-      <c r="AAA7" s="5"/>
-    </row>
-    <row r="8" spans="1:703">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="HA8" s="4"/>
-      <c r="AAA8" s="5"/>
+    </row>
+    <row r="11" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" ht="23.1" customHeight="1">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A99" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="6" priority="5" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
-      <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.">
-      <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
+    <cfRule type="beginsWith" dxfId="10" priority="3" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="9" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="//">
+      <formula>LEFT(A1,LEN("//"))="//"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1 B3:B1048576">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+  <conditionalFormatting sqref="B1:E1048576">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="6">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 7) = "sentry."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="23.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.296875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.69921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="23.1" customHeight="1">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99" spans="1:1" ht="23.1" customHeight="1">
+      <c r="A99" s="4"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="3" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="//">
+      <formula>LEFT(A1,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:E1048576">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="6">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>